--- a/MO L-E 2025PY - INV.xlsx
+++ b/MO L-E 2025PY - INV.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysite.wellpoint.com/personal/al98888_ad_wellpoint_com/Documents/Desktop/New folder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mysite.wellpoint.com/personal/ag69721_ad_wellpoint_com/Documents/Desktop/QHP Templates 2025/New folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{452DCA23-84D8-4DB6-8A53-7504D58B329B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F98BB2B0-37A9-40A0-BA7F-28EBC7ECBA71}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{452DCA23-84D8-4DB6-8A53-7504D58B329B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Benefit PKG 1" sheetId="1" r:id="rId1"/>
@@ -1083,26 +1083,26 @@
   <dimension ref="A1:L87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="49.33203125" customWidth="1"/>
-    <col min="2" max="2" width="77.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.36328125" customWidth="1"/>
+    <col min="2" max="2" width="77.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1121,7 +1121,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>120</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>121</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>122</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>144</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>58</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>62</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>64</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>65</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>66</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>68</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>69</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>70</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>71</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>73</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>75</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>76</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>77</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>78</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>80</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>81</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>82</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>83</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>84</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>85</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>86</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>87</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>88</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>89</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>90</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>91</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>92</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>93</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>94</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>96</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>97</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>98</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>99</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>100</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>101</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>103</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>104</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>107</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>108</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>138</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>110</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>112</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>113</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>114</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>115</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>116</v>
       </c>
@@ -2646,25 +2646,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="A11:E11"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="58.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>127</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>54</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>64</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>65</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>69</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>70</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>71</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>73</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>75</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>76</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>77</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>78</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>80</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>82</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>83</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>84</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>85</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>86</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>87</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>88</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>89</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>90</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>91</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>92</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>93</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>94</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>96</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>97</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>98</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>99</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>100</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>101</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>103</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>104</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>107</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>108</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>138</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>110</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>112</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>113</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>114</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>115</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>116</v>
       </c>
@@ -4118,21 +4118,21 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="58.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>54</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>64</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>65</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>69</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>70</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>71</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>73</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>75</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>76</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>77</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>78</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>80</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>82</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>83</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>84</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>85</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>86</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>87</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>88</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>89</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>90</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>91</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>92</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>93</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>94</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>96</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>97</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>98</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>99</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>100</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>101</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>103</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>104</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>107</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>108</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>138</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>110</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>112</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>113</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>114</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>115</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>116</v>
       </c>
@@ -5588,21 +5588,21 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="58.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -5636,7 +5636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>141</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>57</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>59</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>64</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>65</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>66</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>68</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -6420,7 +6420,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>73</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>75</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>76</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>78</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>80</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>81</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>82</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>83</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>84</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>85</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>86</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>87</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>88</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>89</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>90</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>91</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>92</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>93</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>94</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>96</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>97</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>98</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>99</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>100</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>101</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>103</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>104</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>107</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>108</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>138</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>110</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>112</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>113</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>114</v>
       </c>
@@ -7036,7 +7036,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>115</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>116</v>
       </c>
@@ -7086,22 +7086,22 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="58.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>164</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>167</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>169</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>171</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>173</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>175</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>177</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -7434,7 +7434,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -7482,7 +7482,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -7499,7 +7499,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -7551,7 +7551,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -7670,7 +7670,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>54</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>64</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>65</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>69</v>
       </c>
@@ -7974,7 +7974,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>70</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>71</v>
       </c>
@@ -8011,7 +8011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>73</v>
       </c>
@@ -8031,7 +8031,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>75</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>76</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>77</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>78</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>80</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>82</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>83</v>
       </c>
@@ -8197,7 +8197,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>84</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>85</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>86</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>87</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>88</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>89</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>90</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>91</v>
       </c>
@@ -8309,7 +8309,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>92</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>93</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>94</v>
       </c>
@@ -8366,7 +8366,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>96</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>97</v>
       </c>
@@ -8400,7 +8400,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>98</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>99</v>
       </c>
@@ -8434,7 +8434,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>100</v>
       </c>
@@ -8451,7 +8451,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>101</v>
       </c>
@@ -8471,7 +8471,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>103</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>104</v>
       </c>
@@ -8511,7 +8511,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>107</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>108</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>138</v>
       </c>
@@ -8559,7 +8559,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>110</v>
       </c>
@@ -8576,7 +8576,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>112</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>113</v>
       </c>
@@ -8613,7 +8613,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>114</v>
       </c>
@@ -8630,7 +8630,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>115</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>116</v>
       </c>
@@ -8680,21 +8680,21 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="58.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8714,7 +8714,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>179</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -8780,7 +8780,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -8800,7 +8800,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -8840,7 +8840,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -8874,7 +8874,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -8891,7 +8891,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -8907,7 +8907,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -8947,7 +8947,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -8955,7 +8955,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -8972,7 +8972,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -9004,7 +9004,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -9024,7 +9024,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -9078,7 +9078,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -9094,7 +9094,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -9143,7 +9143,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>54</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -9180,7 +9180,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -9197,7 +9197,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -9294,7 +9294,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -9314,7 +9314,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>64</v>
       </c>
@@ -9346,7 +9346,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>65</v>
       </c>
@@ -9378,7 +9378,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>69</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>70</v>
       </c>
@@ -9464,7 +9464,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>71</v>
       </c>
@@ -9484,7 +9484,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>73</v>
       </c>
@@ -9504,7 +9504,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>75</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>76</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>77</v>
       </c>
@@ -9549,7 +9549,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>78</v>
       </c>
@@ -9575,7 +9575,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>80</v>
       </c>
@@ -9604,7 +9604,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -9621,7 +9621,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>82</v>
       </c>
@@ -9653,7 +9653,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>83</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>84</v>
       </c>
@@ -9690,7 +9690,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>85</v>
       </c>
@@ -9707,7 +9707,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>86</v>
       </c>
@@ -9724,7 +9724,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>87</v>
       </c>
@@ -9741,7 +9741,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>88</v>
       </c>
@@ -9758,7 +9758,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>89</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>90</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>91</v>
       </c>
@@ -9782,7 +9782,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>92</v>
       </c>
@@ -9790,7 +9790,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>93</v>
       </c>
@@ -9810,7 +9810,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>94</v>
       </c>
@@ -9839,7 +9839,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>96</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>97</v>
       </c>
@@ -9873,7 +9873,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>98</v>
       </c>
@@ -9890,7 +9890,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>99</v>
       </c>
@@ -9907,7 +9907,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>100</v>
       </c>
@@ -9924,7 +9924,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>101</v>
       </c>
@@ -9944,7 +9944,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>103</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>104</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>107</v>
       </c>
@@ -10001,7 +10001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>108</v>
       </c>
@@ -10021,7 +10021,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>138</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>110</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>112</v>
       </c>
@@ -10066,7 +10066,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>113</v>
       </c>
@@ -10086,7 +10086,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>114</v>
       </c>
@@ -10106,7 +10106,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>115</v>
       </c>
@@ -10123,7 +10123,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>116</v>
       </c>
@@ -10156,21 +10156,21 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="58.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -10190,7 +10190,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -10210,7 +10210,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>124</v>
       </c>
@@ -10227,7 +10227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -10238,7 +10238,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -10293,7 +10293,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -10313,7 +10313,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -10350,7 +10350,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -10367,7 +10367,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -10384,7 +10384,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -10392,7 +10392,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -10400,7 +10400,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -10408,7 +10408,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -10440,7 +10440,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -10448,7 +10448,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -10497,7 +10497,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -10517,7 +10517,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -10537,7 +10537,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -10554,7 +10554,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -10571,7 +10571,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -10579,7 +10579,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -10587,7 +10587,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -10619,7 +10619,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -10636,7 +10636,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>54</v>
       </c>
@@ -10653,7 +10653,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -10673,7 +10673,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -10690,7 +10690,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -10710,7 +10710,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -10727,7 +10727,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -10747,7 +10747,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -10767,7 +10767,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -10807,7 +10807,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>64</v>
       </c>
@@ -10839,7 +10839,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>65</v>
       </c>
@@ -10871,7 +10871,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -10903,7 +10903,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -10920,7 +10920,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>69</v>
       </c>
@@ -10940,7 +10940,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>70</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>71</v>
       </c>
@@ -10977,7 +10977,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>73</v>
       </c>
@@ -10997,7 +10997,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>75</v>
       </c>
@@ -11005,7 +11005,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>76</v>
       </c>
@@ -11013,7 +11013,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>77</v>
       </c>
@@ -11042,7 +11042,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>78</v>
       </c>
@@ -11068,7 +11068,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>80</v>
       </c>
@@ -11097,7 +11097,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -11114,7 +11114,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>82</v>
       </c>
@@ -11146,7 +11146,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>83</v>
       </c>
@@ -11163,7 +11163,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>84</v>
       </c>
@@ -11180,7 +11180,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>85</v>
       </c>
@@ -11197,7 +11197,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>86</v>
       </c>
@@ -11214,7 +11214,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>87</v>
       </c>
@@ -11231,7 +11231,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>88</v>
       </c>
@@ -11248,7 +11248,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>89</v>
       </c>
@@ -11256,7 +11256,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>90</v>
       </c>
@@ -11264,7 +11264,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>91</v>
       </c>
@@ -11272,7 +11272,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>92</v>
       </c>
@@ -11280,7 +11280,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>93</v>
       </c>
@@ -11300,7 +11300,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>94</v>
       </c>
@@ -11329,7 +11329,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>96</v>
       </c>
@@ -11346,7 +11346,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>97</v>
       </c>
@@ -11363,7 +11363,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>98</v>
       </c>
@@ -11380,7 +11380,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>99</v>
       </c>
@@ -11397,7 +11397,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>100</v>
       </c>
@@ -11414,7 +11414,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>101</v>
       </c>
@@ -11434,7 +11434,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>103</v>
       </c>
@@ -11451,7 +11451,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>104</v>
       </c>
@@ -11474,7 +11474,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>107</v>
       </c>
@@ -11491,7 +11491,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>108</v>
       </c>
@@ -11511,7 +11511,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>138</v>
       </c>
@@ -11522,7 +11522,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>110</v>
       </c>
@@ -11539,7 +11539,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>112</v>
       </c>
@@ -11556,7 +11556,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>113</v>
       </c>
@@ -11576,7 +11576,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>114</v>
       </c>
@@ -11596,7 +11596,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>115</v>
       </c>
@@ -11613,7 +11613,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>116</v>
       </c>
@@ -11646,21 +11646,21 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="58.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11677,7 +11677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>183</v>
       </c>
@@ -11694,7 +11694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -11705,7 +11705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -11740,7 +11740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -11760,7 +11760,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -11780,7 +11780,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -11800,7 +11800,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -11817,7 +11817,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -11834,7 +11834,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -11851,7 +11851,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -11859,7 +11859,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -11867,7 +11867,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -11875,7 +11875,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -11907,7 +11907,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -11915,7 +11915,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -11932,7 +11932,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -11964,7 +11964,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -11984,7 +11984,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -12004,7 +12004,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -12021,7 +12021,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -12038,7 +12038,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -12046,7 +12046,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -12054,7 +12054,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -12086,7 +12086,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -12103,7 +12103,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>54</v>
       </c>
@@ -12120,7 +12120,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -12140,7 +12140,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -12157,7 +12157,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -12177,7 +12177,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -12194,7 +12194,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -12214,7 +12214,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -12234,7 +12234,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -12254,7 +12254,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -12274,7 +12274,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>64</v>
       </c>
@@ -12306,7 +12306,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>65</v>
       </c>
@@ -12338,7 +12338,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -12370,7 +12370,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -12387,7 +12387,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>69</v>
       </c>
@@ -12407,7 +12407,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>70</v>
       </c>
@@ -12424,7 +12424,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>71</v>
       </c>
@@ -12444,7 +12444,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>73</v>
       </c>
@@ -12464,7 +12464,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>75</v>
       </c>
@@ -12472,7 +12472,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>76</v>
       </c>
@@ -12480,7 +12480,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>77</v>
       </c>
@@ -12509,7 +12509,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>78</v>
       </c>
@@ -12535,7 +12535,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>80</v>
       </c>
@@ -12564,7 +12564,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -12581,7 +12581,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>82</v>
       </c>
@@ -12613,7 +12613,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>83</v>
       </c>
@@ -12630,7 +12630,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>84</v>
       </c>
@@ -12647,7 +12647,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>85</v>
       </c>
@@ -12664,7 +12664,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>86</v>
       </c>
@@ -12681,7 +12681,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>87</v>
       </c>
@@ -12698,7 +12698,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>88</v>
       </c>
@@ -12715,7 +12715,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>89</v>
       </c>
@@ -12723,7 +12723,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>90</v>
       </c>
@@ -12731,7 +12731,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>91</v>
       </c>
@@ -12739,7 +12739,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>92</v>
       </c>
@@ -12747,7 +12747,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>93</v>
       </c>
@@ -12767,7 +12767,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>94</v>
       </c>
@@ -12796,7 +12796,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>96</v>
       </c>
@@ -12813,7 +12813,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>97</v>
       </c>
@@ -12830,7 +12830,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>98</v>
       </c>
@@ -12847,7 +12847,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>99</v>
       </c>
@@ -12864,7 +12864,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>100</v>
       </c>
@@ -12881,7 +12881,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>101</v>
       </c>
@@ -12901,7 +12901,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>103</v>
       </c>
@@ -12918,7 +12918,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>104</v>
       </c>
@@ -12941,7 +12941,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>107</v>
       </c>
@@ -12958,7 +12958,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>108</v>
       </c>
@@ -12978,7 +12978,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>138</v>
       </c>
@@ -12989,7 +12989,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>110</v>
       </c>
@@ -13006,7 +13006,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>112</v>
       </c>
@@ -13023,7 +13023,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>113</v>
       </c>
@@ -13043,7 +13043,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>114</v>
       </c>
@@ -13063,7 +13063,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>115</v>
       </c>
@@ -13080,7 +13080,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>116</v>
       </c>
